--- a/biology/Médecine/Sueurs_nocturnes/Sueurs_nocturnes.xlsx
+++ b/biology/Médecine/Sueurs_nocturnes/Sueurs_nocturnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sueurs nocturnes se caractérisent par une transpiration excessive nocturne, pouvant réveiller le dormeur. Elles peuvent être momentanées (liées par exemple aux fièvres de maladies infectieuses) ou chroniques. Une cause très courantes chez la femme de plus de 40 ans est le changement hormonal de la ménopause[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sueurs nocturnes se caractérisent par une transpiration excessive nocturne, pouvant réveiller le dormeur. Elles peuvent être momentanées (liées par exemple aux fièvres de maladies infectieuses) ou chroniques. Une cause très courantes chez la femme de plus de 40 ans est le changement hormonal de la ménopause.
 Les sueurs nocturnes peuvent être relativement bénignes, mais sont parfois le signe d'une maladie sous-jacente grave. Associé à d'autres signes cliniques généraux (fatigue inexpliquée, perte de poids, etc.) il est pertinent de consulter un médecin.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Relativisation par le contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il convient de distinguer les sueurs nocturnes simplement liées à un environnement de sommeil trop chaud (climat, chauffage trop important, trop de couvertures sur le lit...) de sueurs ayant des causes médicales, infectieuses notamment, associées à des "bouffées de chaleur ou au contraire à des frissons et une sensation de froid, nécessitant la consultation d'un médecin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il convient de distinguer les sueurs nocturnes simplement liées à un environnement de sommeil trop chaud (climat, chauffage trop important, trop de couvertures sur le lit...) de sueurs ayant des causes médicales, infectieuses notamment, associées à des "bouffées de chaleur ou au contraire à des frissons et une sensation de froid, nécessitant la consultation d'un médecin.
 Elles sont jugées significatives quand elles obligent le patient à se lever pour changer de draps la nuit, sans causes naturelles (climat, etc.).
 </t>
         </is>
@@ -544,54 +558,56 @@
           <t>Exemples de maladies ou situation associés à des sueurs nocturnes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les sueurs nocturnes chroniques sont retrouvées dans de nombreuses maladies ou circonstances : 
 Cancers
-Lymphome[3],[4]
-Leucémie[3],[4]
+Lymphome,
+Leucémie,
 Nombreuses maladies infectieuses
-HIV/SIDA[3],[5]
-Tuberculose[3],[4]
-Infections intracellulaires par des Mycobactéries atypiques[3]
-Mononucléose infectieuse[3]
-infection fongique (histoplasmose, Coccidioïdomycose)[3]
-abcès nécrotiques du poumon [3]
-endocardite infectieuse[3]
-Brucellose[6]
+HIV/SIDA,
+Tuberculose,
+Infections intracellulaires par des Mycobactéries atypiques
+Mononucléose infectieuse
+infection fongique (histoplasmose, Coccidioïdomycose)
+abcès nécrotiques du poumon 
+endocardite infectieuse
+Brucellose
 Pneumocystose (le plus souvent chez des immunodéprimés)
 Maladies endocriniennes
-Ménopause[7]
-insuffisance ovarienne prématurée[3]
-Hyperthyroïdisme[3]
-Diabète (cf. Hypoglycémie nocturne)[3]
-Tumeur endocrine (phéochromocytome, tumeur carcinoïde)[3]
-Orchiectomie[3]
+Ménopause
+insuffisance ovarienne prématurée
+Hyperthyroïdisme
+Diabète (cf. Hypoglycémie nocturne)
+Tumeur endocrine (phéochromocytome, tumeur carcinoïde)
+Orchiectomie
 Désordres rhumatismaux
-Artérite de Takayasu[3]
-Maladie de Horton (= artérite giganto-cellulaire)[3]
+Artérite de Takayasu
+Maladie de Horton (= artérite giganto-cellulaire)
 Autres pathologies 
-Apnée obstructive du sommeil[3]
-Reflux gastro-œsophagien[3]
-Syndrome de fatigue chronique[3]
+Apnée obstructive du sommeil
+Reflux gastro-œsophagien
+Syndrome de fatigue chronique
 Fibromyalgie
-Granulome[3]
-Pneumonie éosinophile chronique[3]
-Hyperplasie lymphoïde[3]
+Granulome
+Pneumonie éosinophile chronique
+Hyperplasie lymphoïde
 Sarcoïdose
-Diabète insipide[3]
-Angor de Prinzmetal (syndrome coronarien aigu[3]
-Anxiété[3]
-Grossesse[3]
+Diabète insipide
+Angor de Prinzmetal (syndrome coronarien aigu
+Anxiété
+Grossesse
 Médications ou prise de certaines drogues
-Antipyrétiques (salicylates, Acétaminophène)[3]
-Antihypertenseurs[3]
-Stéroïde anabolisants (notamment Trenbolone, et Nandrolones)[3]
+Antipyrétiques (salicylates, Acétaminophène)
+Antihypertenseurs
+Stéroïde anabolisants (notamment Trenbolone, et Nandrolones)
 Dinitrophénol (effet secondaire commun)
-Phénothiazines[3]
+Phénothiazines
 Contexte de sevrage (toxicologie) : éthanol, benzodiazépines, héroine (et autres opiacés)
-Dormir avec trop de couvertures[3]
-Système nerveux autonome hyperactif[3]
+Dormir avec trop de couvertures
+Système nerveux autonome hyperactif
 IBD (Maladie inflammatoire chronique de l'intestin) - Maladie de Crohn/colite ulcérante</t>
         </is>
       </c>
